--- a/src/test/resources/Run_Manager_Send_For_Approval.xlsx
+++ b/src/test/resources/Run_Manager_Send_For_Approval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FE762-087F-4500-A5BA-3C1A7C946DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0D6514-FC4B-4C88-BC00-E61CB7CC0984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="997">
   <si>
     <t>P_Key</t>
   </si>
@@ -6129,6 +6129,9 @@
   </si>
   <si>
     <t>SendContractForApproval_TC_112</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -6603,6 +6606,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6611,9 +6617,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7151,11 +7154,11 @@
   <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7265,7 +7268,7 @@
       <c r="F3" s="46" t="s">
         <v>655</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="65" t="s">
         <v>836</v>
       </c>
       <c r="H3" s="38" t="s">
@@ -7304,7 +7307,7 @@
       <c r="F4" s="46" t="s">
         <v>693</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="65" t="s">
         <v>837</v>
       </c>
       <c r="H4" s="38" t="s">
@@ -7343,7 +7346,7 @@
       <c r="F5" s="46" t="s">
         <v>694</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="65" t="s">
         <v>838</v>
       </c>
       <c r="H5" s="38" t="s">
@@ -7382,7 +7385,7 @@
       <c r="F6" s="46" t="s">
         <v>655</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="65" t="s">
         <v>839</v>
       </c>
       <c r="H6" s="38" t="s">
@@ -7421,7 +7424,7 @@
       <c r="F7" s="46" t="s">
         <v>693</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="65" t="s">
         <v>840</v>
       </c>
       <c r="H7" s="38" t="s">
@@ -7460,7 +7463,7 @@
       <c r="F8" s="46" t="s">
         <v>694</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="65" t="s">
         <v>841</v>
       </c>
       <c r="H8" s="38" t="s">
@@ -7499,7 +7502,7 @@
       <c r="F9" s="46" t="s">
         <v>727</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="65" t="s">
         <v>842</v>
       </c>
       <c r="H9" s="38" t="s">
@@ -7538,7 +7541,7 @@
       <c r="F10" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="65" t="s">
         <v>843</v>
       </c>
       <c r="H10" s="38" t="s">
@@ -7577,7 +7580,7 @@
       <c r="F11" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="65" t="s">
         <v>844</v>
       </c>
       <c r="H11" s="38" t="s">
@@ -7616,7 +7619,7 @@
       <c r="F12" s="46" t="s">
         <v>727</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="65" t="s">
         <v>845</v>
       </c>
       <c r="H12" s="38" t="s">
@@ -7655,7 +7658,7 @@
       <c r="F13" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="65" t="s">
         <v>846</v>
       </c>
       <c r="H13" s="38" t="s">
@@ -7694,7 +7697,7 @@
       <c r="F14" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="65" t="s">
         <v>847</v>
       </c>
       <c r="H14" s="38" t="s">
@@ -7733,7 +7736,7 @@
       <c r="F15" s="46" t="s">
         <v>740</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="65" t="s">
         <v>848</v>
       </c>
       <c r="H15" s="38" t="s">
@@ -7772,7 +7775,7 @@
       <c r="F16" s="46" t="s">
         <v>743</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="65" t="s">
         <v>849</v>
       </c>
       <c r="H16" s="38" t="s">
@@ -7811,7 +7814,7 @@
       <c r="F17" s="46" t="s">
         <v>746</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="65" t="s">
         <v>850</v>
       </c>
       <c r="H17" s="38" t="s">
@@ -7850,7 +7853,7 @@
       <c r="F18" s="46" t="s">
         <v>740</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="65" t="s">
         <v>851</v>
       </c>
       <c r="H18" s="38" t="s">
@@ -7889,7 +7892,7 @@
       <c r="F19" s="46" t="s">
         <v>743</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="65" t="s">
         <v>852</v>
       </c>
       <c r="H19" s="38" t="s">
@@ -7928,7 +7931,7 @@
       <c r="F20" s="46" t="s">
         <v>746</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="65" t="s">
         <v>853</v>
       </c>
       <c r="H20" s="38" t="s">
@@ -7967,7 +7970,7 @@
       <c r="F21" s="46" t="s">
         <v>740</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="65" t="s">
         <v>854</v>
       </c>
       <c r="H21" s="38" t="s">
@@ -8006,7 +8009,7 @@
       <c r="F22" s="46" t="s">
         <v>743</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="65" t="s">
         <v>855</v>
       </c>
       <c r="H22" s="38" t="s">
@@ -8045,7 +8048,7 @@
       <c r="F23" s="46" t="s">
         <v>746</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="65" t="s">
         <v>856</v>
       </c>
       <c r="H23" s="38" t="s">
@@ -8084,7 +8087,7 @@
       <c r="F24" s="46" t="s">
         <v>740</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="65" t="s">
         <v>857</v>
       </c>
       <c r="H24" s="38" t="s">
@@ -8123,7 +8126,7 @@
       <c r="F25" s="46" t="s">
         <v>743</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="65" t="s">
         <v>858</v>
       </c>
       <c r="H25" s="38" t="s">
@@ -8162,7 +8165,7 @@
       <c r="F26" s="46" t="s">
         <v>746</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="65" t="s">
         <v>859</v>
       </c>
       <c r="H26" s="38" t="s">
@@ -8201,7 +8204,7 @@
       <c r="F27" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="65" t="s">
         <v>860</v>
       </c>
       <c r="H27" s="38" t="s">
@@ -8240,7 +8243,7 @@
       <c r="F28" s="46" t="s">
         <v>766</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="65" t="s">
         <v>861</v>
       </c>
       <c r="H28" s="38" t="s">
@@ -8279,7 +8282,7 @@
       <c r="F29" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="65" t="s">
         <v>862</v>
       </c>
       <c r="H29" s="38" t="s">
@@ -8318,7 +8321,7 @@
       <c r="F30" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="65" t="s">
         <v>863</v>
       </c>
       <c r="H30" s="38" t="s">
@@ -8357,7 +8360,7 @@
       <c r="F31" s="46" t="s">
         <v>766</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="65" t="s">
         <v>864</v>
       </c>
       <c r="H31" s="38" t="s">
@@ -8396,7 +8399,7 @@
       <c r="F32" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="65" t="s">
         <v>865</v>
       </c>
       <c r="H32" s="38" t="s">
@@ -8435,7 +8438,7 @@
       <c r="F33" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="65" t="s">
         <v>866</v>
       </c>
       <c r="H33" s="38" t="s">
@@ -8474,7 +8477,7 @@
       <c r="F34" s="46" t="s">
         <v>766</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="65" t="s">
         <v>867</v>
       </c>
       <c r="H34" s="38" t="s">
@@ -8513,7 +8516,7 @@
       <c r="F35" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="65" t="s">
         <v>868</v>
       </c>
       <c r="H35" s="38" t="s">
@@ -8552,7 +8555,7 @@
       <c r="F36" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="65" t="s">
         <v>869</v>
       </c>
       <c r="H36" s="38" t="s">
@@ -8591,7 +8594,7 @@
       <c r="F37" s="46" t="s">
         <v>766</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="65" t="s">
         <v>870</v>
       </c>
       <c r="H37" s="38" t="s">
@@ -8630,7 +8633,7 @@
       <c r="F38" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="65" t="s">
         <v>871</v>
       </c>
       <c r="H38" s="38" t="s">
@@ -8669,7 +8672,7 @@
       <c r="F39" s="46" t="s">
         <v>790</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="65" t="s">
         <v>872</v>
       </c>
       <c r="H39" s="38" t="s">
@@ -8708,7 +8711,7 @@
       <c r="F40" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="G40" s="68" t="s">
+      <c r="G40" s="65" t="s">
         <v>873</v>
       </c>
       <c r="H40" s="38" t="s">
@@ -8747,7 +8750,7 @@
       <c r="F41" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="G41" s="68" t="s">
+      <c r="G41" s="65" t="s">
         <v>874</v>
       </c>
       <c r="H41" s="38" t="s">
@@ -8786,7 +8789,7 @@
       <c r="F42" s="46" t="s">
         <v>790</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="G42" s="65" t="s">
         <v>875</v>
       </c>
       <c r="H42" s="38" t="s">
@@ -8825,7 +8828,7 @@
       <c r="F43" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="G43" s="68" t="s">
+      <c r="G43" s="65" t="s">
         <v>876</v>
       </c>
       <c r="H43" s="38" t="s">
@@ -8864,7 +8867,7 @@
       <c r="F44" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="G44" s="68" t="s">
+      <c r="G44" s="65" t="s">
         <v>877</v>
       </c>
       <c r="H44" s="38" t="s">
@@ -8903,7 +8906,7 @@
       <c r="F45" s="46" t="s">
         <v>790</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="65" t="s">
         <v>878</v>
       </c>
       <c r="H45" s="38" t="s">
@@ -8942,7 +8945,7 @@
       <c r="F46" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="G46" s="68" t="s">
+      <c r="G46" s="65" t="s">
         <v>879</v>
       </c>
       <c r="H46" s="38" t="s">
@@ -8981,7 +8984,7 @@
       <c r="F47" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="G47" s="65" t="s">
         <v>880</v>
       </c>
       <c r="H47" s="38" t="s">
@@ -9020,7 +9023,7 @@
       <c r="F48" s="46" t="s">
         <v>790</v>
       </c>
-      <c r="G48" s="68" t="s">
+      <c r="G48" s="65" t="s">
         <v>881</v>
       </c>
       <c r="H48" s="38" t="s">
@@ -9059,7 +9062,7 @@
       <c r="F49" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="G49" s="68" t="s">
+      <c r="G49" s="65" t="s">
         <v>882</v>
       </c>
       <c r="H49" s="38" t="s">
@@ -9098,7 +9101,7 @@
       <c r="F50" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="G50" s="68" t="s">
+      <c r="G50" s="65" t="s">
         <v>883</v>
       </c>
       <c r="H50" s="38" t="s">
@@ -9175,7 +9178,7 @@
         <v>246</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J52" s="47" t="s">
         <v>28</v>
@@ -9214,7 +9217,7 @@
         <v>246</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J53" s="47" t="s">
         <v>28</v>
@@ -9253,7 +9256,7 @@
         <v>246</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J54" s="47" t="s">
         <v>28</v>
@@ -9292,7 +9295,7 @@
         <v>246</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J55" s="47" t="s">
         <v>28</v>
@@ -9331,7 +9334,7 @@
         <v>246</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J56" s="47" t="s">
         <v>28</v>
@@ -9370,7 +9373,7 @@
         <v>246</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J57" s="47" t="s">
         <v>28</v>
@@ -9409,7 +9412,7 @@
         <v>246</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J58" s="47" t="s">
         <v>28</v>
@@ -9448,7 +9451,7 @@
         <v>246</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J59" s="47" t="s">
         <v>28</v>
@@ -9487,7 +9490,7 @@
         <v>246</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J60" s="47" t="s">
         <v>28</v>
@@ -9526,7 +9529,7 @@
         <v>246</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J61" s="47" t="s">
         <v>28</v>
@@ -9565,7 +9568,7 @@
         <v>246</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J62" s="47" t="s">
         <v>28</v>
@@ -9604,7 +9607,7 @@
         <v>246</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J63" s="47" t="s">
         <v>28</v>
@@ -9643,7 +9646,7 @@
         <v>246</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J64" s="47" t="s">
         <v>28</v>
@@ -9682,7 +9685,7 @@
         <v>246</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J65" s="47" t="s">
         <v>28</v>
@@ -9721,7 +9724,7 @@
         <v>246</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J66" s="47" t="s">
         <v>28</v>
@@ -9760,7 +9763,7 @@
         <v>246</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J67" s="47" t="s">
         <v>28</v>
@@ -9799,7 +9802,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J68" s="47" t="s">
         <v>28</v>
@@ -9838,7 +9841,7 @@
         <v>246</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J69" s="47" t="s">
         <v>28</v>
@@ -9877,7 +9880,7 @@
         <v>246</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J70" s="47" t="s">
         <v>28</v>
@@ -9916,7 +9919,7 @@
         <v>246</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J71" s="47" t="s">
         <v>28</v>
@@ -9955,7 +9958,7 @@
         <v>246</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J72" s="47" t="s">
         <v>28</v>
@@ -9994,7 +9997,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J73" s="47" t="s">
         <v>28</v>
@@ -10033,7 +10036,7 @@
         <v>246</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J74" s="47" t="s">
         <v>28</v>
@@ -10072,7 +10075,7 @@
         <v>246</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J75" s="47" t="s">
         <v>28</v>
@@ -10111,7 +10114,7 @@
         <v>246</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J76" s="47" t="s">
         <v>28</v>
@@ -10150,7 +10153,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J77" s="47" t="s">
         <v>28</v>
@@ -10189,7 +10192,7 @@
         <v>246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J78" s="47" t="s">
         <v>28</v>
@@ -10228,7 +10231,7 @@
         <v>246</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J79" s="47" t="s">
         <v>28</v>
@@ -10267,7 +10270,7 @@
         <v>246</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J80" s="47" t="s">
         <v>28</v>
@@ -10306,7 +10309,7 @@
         <v>246</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J81" s="47" t="s">
         <v>28</v>
@@ -10345,7 +10348,7 @@
         <v>246</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J82" s="47" t="s">
         <v>28</v>
@@ -10384,7 +10387,7 @@
         <v>246</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J83" s="47" t="s">
         <v>28</v>
@@ -10423,7 +10426,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J84" s="47" t="s">
         <v>28</v>
@@ -10462,7 +10465,7 @@
         <v>246</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J85" s="47" t="s">
         <v>28</v>
@@ -10501,7 +10504,7 @@
         <v>246</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J86" s="47" t="s">
         <v>28</v>
@@ -10540,7 +10543,7 @@
         <v>246</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J87" s="47" t="s">
         <v>28</v>
@@ -10579,7 +10582,7 @@
         <v>246</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J88" s="47" t="s">
         <v>28</v>
@@ -10618,7 +10621,7 @@
         <v>246</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J89" s="47" t="s">
         <v>28</v>
@@ -10657,7 +10660,7 @@
         <v>246</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J90" s="47" t="s">
         <v>28</v>
@@ -10696,7 +10699,7 @@
         <v>246</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J91" s="47" t="s">
         <v>28</v>
@@ -10735,7 +10738,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J92" s="47" t="s">
         <v>28</v>
@@ -10774,7 +10777,7 @@
         <v>246</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J93" s="47" t="s">
         <v>28</v>
@@ -10842,7 +10845,7 @@
         <v>246</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J95" s="47" t="s">
         <v>28</v>
@@ -10881,7 +10884,7 @@
         <v>246</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J96" s="47" t="s">
         <v>28</v>
@@ -10920,7 +10923,7 @@
         <v>246</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J97" s="47" t="s">
         <v>28</v>
@@ -10959,7 +10962,7 @@
         <v>246</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J98" s="47" t="s">
         <v>28</v>
@@ -10998,7 +11001,7 @@
         <v>246</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J99" s="47" t="s">
         <v>28</v>
@@ -11037,7 +11040,7 @@
         <v>246</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J100" s="47" t="s">
         <v>28</v>
@@ -11076,7 +11079,7 @@
         <v>246</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J101" s="47" t="s">
         <v>28</v>
@@ -11115,7 +11118,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J102" s="47" t="s">
         <v>28</v>
@@ -11154,7 +11157,7 @@
         <v>246</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J103" s="47" t="s">
         <v>28</v>
@@ -11193,7 +11196,7 @@
         <v>246</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J104" s="47" t="s">
         <v>28</v>
@@ -11232,7 +11235,7 @@
         <v>246</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J105" s="47" t="s">
         <v>28</v>
@@ -11271,7 +11274,7 @@
         <v>246</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J106" s="47" t="s">
         <v>28</v>
@@ -11310,7 +11313,7 @@
         <v>246</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J107" s="47" t="s">
         <v>28</v>
@@ -11349,7 +11352,7 @@
         <v>246</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J108" s="47" t="s">
         <v>28</v>
@@ -11388,7 +11391,7 @@
         <v>246</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J109" s="47" t="s">
         <v>28</v>
@@ -11427,7 +11430,7 @@
         <v>246</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J110" s="47" t="s">
         <v>28</v>
@@ -11466,7 +11469,7 @@
         <v>246</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J111" s="47" t="s">
         <v>28</v>
@@ -11505,7 +11508,7 @@
         <v>246</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J112" s="47" t="s">
         <v>28</v>
@@ -11544,7 +11547,7 @@
         <v>246</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J113" s="47" t="s">
         <v>28</v>
@@ -11583,7 +11586,7 @@
         <v>246</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J114" s="47" t="s">
         <v>28</v>
@@ -11622,7 +11625,7 @@
         <v>246</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J115" s="47" t="s">
         <v>28</v>
@@ -11661,7 +11664,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J116" s="47" t="s">
         <v>28</v>
@@ -11729,7 +11732,7 @@
         <v>246</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J118" s="47" t="s">
         <v>28</v>
@@ -11768,7 +11771,7 @@
         <v>246</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J119" s="47" t="s">
         <v>28</v>
@@ -11807,7 +11810,7 @@
         <v>246</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J120" s="47" t="s">
         <v>28</v>
@@ -11846,7 +11849,7 @@
         <v>246</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J121" s="47" t="s">
         <v>28</v>
@@ -11885,7 +11888,7 @@
         <v>246</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J122" s="47" t="s">
         <v>28</v>
@@ -11924,7 +11927,7 @@
         <v>246</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J123" s="47" t="s">
         <v>28</v>
@@ -11963,7 +11966,7 @@
         <v>246</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J124" s="47" t="s">
         <v>28</v>
@@ -12002,7 +12005,7 @@
         <v>246</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J125" s="47" t="s">
         <v>28</v>
@@ -12041,7 +12044,7 @@
         <v>246</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J126" s="47" t="s">
         <v>28</v>
@@ -12080,7 +12083,7 @@
         <v>246</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J127" s="47" t="s">
         <v>28</v>
@@ -12119,7 +12122,7 @@
         <v>246</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J128" s="47" t="s">
         <v>28</v>
@@ -12158,7 +12161,7 @@
         <v>246</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J129" s="47" t="s">
         <v>28</v>
@@ -12197,7 +12200,7 @@
         <v>246</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J130" s="47" t="s">
         <v>28</v>
@@ -12236,7 +12239,7 @@
         <v>246</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J131" s="47" t="s">
         <v>28</v>
@@ -12275,7 +12278,7 @@
         <v>246</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J132" s="47" t="s">
         <v>28</v>
@@ -12314,7 +12317,7 @@
         <v>246</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J133" s="47" t="s">
         <v>28</v>
@@ -12353,7 +12356,7 @@
         <v>246</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J134" s="47" t="s">
         <v>28</v>
@@ -12392,7 +12395,7 @@
         <v>246</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J135" s="47" t="s">
         <v>28</v>
@@ -12462,7 +12465,7 @@
         <v>246</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J137" s="47" t="s">
         <v>28</v>
@@ -12501,7 +12504,7 @@
         <v>246</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J138" s="47" t="s">
         <v>28</v>
@@ -12540,7 +12543,7 @@
         <v>246</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J139" s="47" t="s">
         <v>28</v>
@@ -12579,7 +12582,7 @@
         <v>246</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J140" s="47" t="s">
         <v>28</v>
@@ -12618,7 +12621,7 @@
         <v>246</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J141" s="47" t="s">
         <v>28</v>
@@ -12657,7 +12660,7 @@
         <v>246</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J142" s="47" t="s">
         <v>28</v>
@@ -12696,7 +12699,7 @@
         <v>246</v>
       </c>
       <c r="I143" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J143" s="47" t="s">
         <v>28</v>
@@ -12735,7 +12738,7 @@
         <v>246</v>
       </c>
       <c r="I144" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J144" s="47" t="s">
         <v>28</v>
@@ -12774,7 +12777,7 @@
         <v>246</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J145" s="47" t="s">
         <v>28</v>
@@ -12813,7 +12816,7 @@
         <v>246</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J146" s="47" t="s">
         <v>28</v>
@@ -12852,7 +12855,7 @@
         <v>246</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J147" s="47" t="s">
         <v>28</v>
@@ -12891,7 +12894,7 @@
         <v>246</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J148" s="47" t="s">
         <v>28</v>
@@ -12930,7 +12933,7 @@
         <v>246</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J149" s="47" t="s">
         <v>28</v>
@@ -12969,7 +12972,7 @@
         <v>246</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J150" s="47" t="s">
         <v>28</v>
@@ -13008,7 +13011,7 @@
         <v>246</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J151" s="47" t="s">
         <v>28</v>
@@ -13047,7 +13050,7 @@
         <v>246</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J152" s="47" t="s">
         <v>28</v>
@@ -13086,7 +13089,7 @@
         <v>246</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J153" s="47" t="s">
         <v>28</v>
@@ -13125,7 +13128,7 @@
         <v>246</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J154" s="47" t="s">
         <v>28</v>
@@ -13164,7 +13167,7 @@
         <v>246</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J155" s="47" t="s">
         <v>28</v>
@@ -13203,7 +13206,7 @@
         <v>246</v>
       </c>
       <c r="I156" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J156" s="47" t="s">
         <v>28</v>
@@ -13242,7 +13245,7 @@
         <v>246</v>
       </c>
       <c r="I157" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J157" s="47" t="s">
         <v>28</v>
@@ -13281,7 +13284,7 @@
         <v>246</v>
       </c>
       <c r="I158" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J158" s="47" t="s">
         <v>28</v>
@@ -13351,7 +13354,7 @@
         <v>246</v>
       </c>
       <c r="I160" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J160" s="47" t="s">
         <v>28</v>
@@ -13390,7 +13393,7 @@
         <v>246</v>
       </c>
       <c r="I161" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J161" s="47" t="s">
         <v>28</v>
@@ -13429,7 +13432,7 @@
         <v>246</v>
       </c>
       <c r="I162" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J162" s="47" t="s">
         <v>28</v>
@@ -13468,7 +13471,7 @@
         <v>246</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J163" s="47" t="s">
         <v>28</v>
@@ -13507,7 +13510,7 @@
         <v>246</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J164" s="47" t="s">
         <v>28</v>
@@ -13546,7 +13549,7 @@
         <v>246</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J165" s="47" t="s">
         <v>28</v>
@@ -13585,7 +13588,7 @@
         <v>246</v>
       </c>
       <c r="I166" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J166" s="47" t="s">
         <v>28</v>
@@ -13624,7 +13627,7 @@
         <v>246</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>15</v>
+        <v>996</v>
       </c>
       <c r="J167" s="47" t="s">
         <v>28</v>
@@ -16856,20 +16859,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="68"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
